--- a/PPP/Design Results 2/mann_whitney_calc.xlsx
+++ b/PPP/Design Results 2/mann_whitney_calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\userfs\slw546\w2k\workspace\ppp\PPP\Design Results 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\workspace\ppp\PPP\Design Results 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="41">
   <si>
     <t>Group 1</t>
   </si>
@@ -130,6 +130,27 @@
   <si>
     <t>Wfr</t>
   </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>WFL</t>
+  </si>
+  <si>
+    <t>ExpLim</t>
+  </si>
+  <si>
+    <t>ExpNoise</t>
+  </si>
+  <si>
+    <t>LTE</t>
+  </si>
+  <si>
+    <t>Bumper</t>
+  </si>
+  <si>
+    <t>Dbump</t>
+  </si>
 </sst>
 </file>
 
@@ -171,7 +192,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -560,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,13 +680,13 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -605,7 +706,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
@@ -639,25 +740,25 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>100</v>
+        <v>38.9</v>
       </c>
       <c r="B5" t="str">
         <f>$B$3</f>
         <v>Wei</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5" t="str">
         <f>$E$3</f>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G5">
-        <f>A5</f>
-        <v>100</v>
+        <f t="shared" ref="G5:G36" si="0">A5</f>
+        <v>38.9</v>
       </c>
       <c r="H5" t="str">
-        <f>B5</f>
+        <f t="shared" ref="H5:H36" si="1">B5</f>
         <v>Wei</v>
       </c>
       <c r="J5">
@@ -669,25 +770,25 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" ref="B6:B64" si="0">$B$3</f>
+        <f t="shared" ref="B6:B64" si="2">$B$3</f>
         <v>Wei</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" ref="E6:E64" si="1">$E$3</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" ref="E6:E64" si="3">$E$3</f>
+        <v>Final</v>
       </c>
       <c r="G6">
-        <f>A6</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H6" t="str">
-        <f>B6</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J6">
@@ -699,25 +800,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>100</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>99.4</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G7">
-        <f>A7</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>39.200000000000003</v>
       </c>
       <c r="H7" t="str">
-        <f>B7</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J7">
@@ -729,25 +830,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>100</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G8">
-        <f>A8</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>74.599999999999994</v>
       </c>
       <c r="H8" t="str">
-        <f>B8</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J8">
@@ -759,25 +860,25 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>94.9</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G9">
-        <f>A9</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H9" t="str">
-        <f>B9</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J9">
@@ -789,25 +890,25 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>100</v>
+        <v>84.6</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G10">
-        <f>A10</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>84.6</v>
       </c>
       <c r="H10" t="str">
-        <f>B10</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J10">
@@ -819,25 +920,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>93.5</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G11">
-        <f>A11</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>39.200000000000003</v>
       </c>
       <c r="H11" t="str">
-        <f>B11</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J11">
@@ -849,25 +950,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G12">
-        <f>A12</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H12" t="str">
-        <f>B12</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J12">
@@ -879,25 +980,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>95.9</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G13">
-        <f>A13</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H13" t="str">
-        <f>B13</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J13">
@@ -909,25 +1010,25 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G14">
-        <f>A14</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H14" t="str">
-        <f>B14</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J14">
@@ -939,25 +1040,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0</v>
+        <v>98.2</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G15">
-        <f>A15</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>98.2</v>
       </c>
       <c r="H15" t="str">
-        <f>B15</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J15">
@@ -969,25 +1070,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G16">
-        <f>A16</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H16" t="str">
-        <f>B16</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J16">
@@ -999,25 +1100,25 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G17">
-        <f>A17</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="H17" t="str">
-        <f>B17</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J17">
@@ -1029,25 +1130,25 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>31.3</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G18">
-        <f>A18</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>66.7</v>
       </c>
       <c r="H18" t="str">
-        <f>B18</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J18">
@@ -1059,25 +1160,25 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D19">
         <v>100</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G19">
-        <f>A19</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H19" t="str">
-        <f>B19</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J19">
@@ -1089,25 +1190,25 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>99.8</v>
+        <v>56.6</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G20">
-        <f>A20</f>
-        <v>99.8</v>
+        <f t="shared" si="0"/>
+        <v>56.6</v>
       </c>
       <c r="H20" t="str">
-        <f>B20</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J20">
@@ -1119,122 +1220,122 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>100</v>
+        <v>16.2</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G21">
-        <f>A21</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>16.2</v>
       </c>
       <c r="H21" t="str">
-        <f>B21</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>86.4</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G22">
-        <f>A22</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H22" t="str">
-        <f>B22</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G23">
-        <f>A23</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H23" t="str">
-        <f>B23</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D24">
-        <v>90.6</v>
+        <v>62.4</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G24">
-        <f>A24</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H24" t="str">
-        <f>B24</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1242,29 +1343,29 @@
         <v>0</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>45.7</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G25">
-        <f>A25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" t="str">
-        <f>B25</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1272,209 +1373,209 @@
         <v>100</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G26">
-        <f>A26</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H26" t="str">
-        <f>B26</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0</v>
+        <v>78.2</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G27">
-        <f>A27</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>78.2</v>
       </c>
       <c r="H27" t="str">
-        <f>B27</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>100</v>
+        <v>96.4</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G28">
-        <f>A28</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>96.4</v>
       </c>
       <c r="H28" t="str">
-        <f>B28</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0</v>
+        <v>49.3</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>99.8</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G29">
-        <f>A29</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>49.3</v>
       </c>
       <c r="H29" t="str">
-        <f>B29</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0</v>
+        <v>86.1</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D30">
         <v>100</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G30">
-        <f>A30</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>86.1</v>
       </c>
       <c r="H30" t="str">
-        <f>B30</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G31">
-        <f>A31</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H31" t="str">
-        <f>B31</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>74.3</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G32">
-        <f>A32</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H32" t="str">
-        <f>B32</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1482,296 +1583,296 @@
         <v>0</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G33">
-        <f>A33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" t="str">
-        <f>B33</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>100</v>
+        <v>52.3</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>65.2</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G34">
-        <f>A34</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>52.3</v>
       </c>
       <c r="H34" t="str">
-        <f>B34</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0</v>
+        <v>34.9</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D35">
         <v>100</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G35">
-        <f>A35</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>34.9</v>
       </c>
       <c r="H35" t="str">
-        <f>B35</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>50.8</v>
+        <v>0</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D36">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G36">
-        <f>A36</f>
-        <v>50.8</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H36" t="str">
-        <f>B36</f>
+        <f t="shared" si="1"/>
         <v>Wei</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D37">
         <v>100</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G37">
-        <f>A37</f>
-        <v>100</v>
+        <f t="shared" ref="G37:G64" si="4">A37</f>
+        <v>0</v>
       </c>
       <c r="H37" t="str">
-        <f>B37</f>
+        <f t="shared" ref="H37:H64" si="5">B37</f>
         <v>Wei</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G38">
-        <f>A38</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>34.799999999999997</v>
       </c>
       <c r="H38" t="str">
-        <f>B38</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>100</v>
+        <v>38.4</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>78.2</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G39">
-        <f>A39</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>38.4</v>
       </c>
       <c r="H39" t="str">
-        <f>B39</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>87.9</v>
+        <v>40.6</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D40">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G40">
-        <f>A40</f>
-        <v>87.9</v>
+        <f t="shared" si="4"/>
+        <v>40.6</v>
       </c>
       <c r="H40" t="str">
-        <f>B40</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>96.6</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G41">
-        <f>A41</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H41" t="str">
-        <f>B41</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>51</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="2"/>
+        <v>Wei</v>
+      </c>
+      <c r="D42">
         <v>100</v>
       </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>Wei</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
       <c r="E42" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G42">
-        <f>A42</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>51</v>
       </c>
       <c r="H42" t="str">
-        <f>B42</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J42">
-        <v>50.8</v>
+        <v>16.2</v>
       </c>
       <c r="K42" t="s">
         <v>6</v>
@@ -1782,29 +1883,29 @@
         <v>0</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G43">
-        <f>A43</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H43" t="str">
-        <f>B43</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J43">
-        <v>87.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="K43" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1812,86 +1913,86 @@
         <v>0</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D44">
-        <v>100</v>
+        <v>90.9</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G44">
-        <f>A44</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H44" t="str">
-        <f>B44</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J44">
-        <v>90.6</v>
+        <v>28</v>
       </c>
       <c r="K44" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>98.1</v>
+        <v>0</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G45">
-        <f>A45</f>
-        <v>98.1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H45" t="str">
-        <f>B45</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J45">
-        <v>90.9</v>
+        <v>31.3</v>
       </c>
       <c r="K45" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>96.4</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G46">
-        <f>A46</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H46" t="str">
-        <f>B46</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J46">
-        <v>98.1</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="K46" t="s">
         <v>6</v>
@@ -1899,32 +2000,32 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>100</v>
+        <v>55.8</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D47">
-        <v>100</v>
+        <v>40.4</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G47">
-        <f>A47</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>55.8</v>
       </c>
       <c r="H47" t="str">
-        <f>B47</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J47">
-        <v>99.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="K47" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1932,26 +2033,26 @@
         <v>100</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D48">
+        <v>62.1</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="3"/>
+        <v>Final</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
-      </c>
-      <c r="G48">
-        <f>A48</f>
-        <v>100</v>
-      </c>
       <c r="H48" t="str">
-        <f>B48</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J48">
-        <v>100</v>
+        <v>34.9</v>
       </c>
       <c r="K48" t="s">
         <v>6</v>
@@ -1959,29 +2060,29 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D49">
         <v>100</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G49">
-        <f>A49</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H49" t="str">
-        <f>B49</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J49">
-        <v>100</v>
+        <v>38.4</v>
       </c>
       <c r="K49" t="s">
         <v>6</v>
@@ -1989,29 +2090,29 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>95.6</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G50">
-        <f>A50</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H50" t="str">
-        <f>B50</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J50">
-        <v>100</v>
+        <v>38.9</v>
       </c>
       <c r="K50" t="s">
         <v>6</v>
@@ -2022,26 +2123,26 @@
         <v>0</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>66.3</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G51">
-        <f>A51</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H51" t="str">
-        <f>B51</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J51">
-        <v>100</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="K51" t="s">
         <v>6</v>
@@ -2049,29 +2150,29 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D52">
         <v>100</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G52">
-        <f>A52</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H52" t="str">
-        <f>B52</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J52">
-        <v>100</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="K52" t="s">
         <v>6</v>
@@ -2082,56 +2183,56 @@
         <v>0</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D53">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G53">
-        <f>A53</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H53" t="str">
-        <f>B53</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J53">
-        <v>100</v>
+        <v>40.4</v>
       </c>
       <c r="K53" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D54">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G54">
-        <f>A54</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>73.900000000000006</v>
       </c>
       <c r="H54" t="str">
-        <f>B54</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J54">
-        <v>100</v>
+        <v>40.6</v>
       </c>
       <c r="K54" t="s">
         <v>6</v>
@@ -2139,119 +2240,119 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>100</v>
+        <v>91.7</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G55">
-        <f>A55</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>91.7</v>
       </c>
       <c r="H55" t="str">
-        <f>B55</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J55">
-        <v>100</v>
+        <v>44.1</v>
       </c>
       <c r="K55" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>100</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D56">
-        <v>100</v>
+        <v>84.5</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G56">
-        <f>A56</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>70.099999999999994</v>
       </c>
       <c r="H56" t="str">
-        <f>B56</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J56">
-        <v>100</v>
+        <v>45.7</v>
       </c>
       <c r="K56" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>100</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G57">
-        <f>A57</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>64.400000000000006</v>
       </c>
       <c r="H57" t="str">
-        <f>B57</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J57">
-        <v>100</v>
+        <v>46.6</v>
       </c>
       <c r="K57" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>90.9</v>
+        <v>0</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>95.9</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G58">
-        <f>A58</f>
-        <v>90.9</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H58" t="str">
-        <f>B58</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J58">
-        <v>100</v>
+        <v>49.3</v>
       </c>
       <c r="K58" t="s">
         <v>6</v>
@@ -2259,29 +2360,29 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>100</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>92.1</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G59">
-        <f>A59</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>79.099999999999994</v>
       </c>
       <c r="H59" t="str">
-        <f>B59</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J59">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="K59" t="s">
         <v>6</v>
@@ -2289,29 +2390,29 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>74.5</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="2"/>
+        <v>Wei</v>
+      </c>
+      <c r="D60">
         <v>100</v>
       </c>
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>Wei</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
       <c r="E60" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G60">
-        <f>A60</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>74.5</v>
       </c>
       <c r="H60" t="str">
-        <f>B60</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J60">
-        <v>100</v>
+        <v>52.3</v>
       </c>
       <c r="K60" t="s">
         <v>6</v>
@@ -2319,29 +2420,29 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>84.7</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G61">
-        <f>A61</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H61" t="str">
-        <f>B61</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J61">
-        <v>100</v>
+        <v>55.8</v>
       </c>
       <c r="K61" t="s">
         <v>6</v>
@@ -2349,29 +2450,29 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0</v>
+        <v>82.4</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D62">
-        <v>100</v>
+        <v>46.6</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G62">
-        <f>A62</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>82.4</v>
       </c>
       <c r="H62" t="str">
-        <f>B62</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J62">
-        <v>100</v>
+        <v>56.6</v>
       </c>
       <c r="K62" t="s">
         <v>6</v>
@@ -2379,75 +2480,75 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G63">
-        <f>A63</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H63" t="str">
-        <f>B63</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J63">
-        <v>100</v>
+        <v>62.1</v>
       </c>
       <c r="K63" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0</v>
+        <v>75.5</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Wei</v>
       </c>
       <c r="D64">
         <v>100</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="3"/>
+        <v>Final</v>
       </c>
       <c r="G64">
-        <f>A64</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>75.5</v>
       </c>
       <c r="H64" t="str">
-        <f>B64</f>
+        <f t="shared" si="5"/>
         <v>Wei</v>
       </c>
       <c r="J64">
-        <v>100</v>
+        <v>62.4</v>
       </c>
       <c r="K64" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G65">
-        <f>D5</f>
-        <v>100</v>
+        <f t="shared" ref="G65:G96" si="6">D5</f>
+        <v>0</v>
       </c>
       <c r="H65" t="str">
-        <f>E5</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" ref="H65:H96" si="7">E5</f>
+        <v>Final</v>
       </c>
       <c r="J65">
-        <v>100</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="K65" t="s">
         <v>6</v>
@@ -2455,47 +2556,47 @@
     </row>
     <row r="66" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G66">
-        <f>D6</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>99.6</v>
       </c>
       <c r="H66" t="str">
-        <f>E6</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J66">
-        <v>100</v>
+        <v>65.2</v>
       </c>
       <c r="K66" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G67">
-        <f>D7</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>99.4</v>
       </c>
       <c r="H67" t="str">
-        <f>E7</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J67">
-        <v>100</v>
+        <v>66.3</v>
       </c>
       <c r="K67" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G68">
-        <f>D8</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>92</v>
       </c>
       <c r="H68" t="str">
-        <f>E8</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J68">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="K68" t="s">
         <v>6</v>
@@ -2503,31 +2604,31 @@
     </row>
     <row r="69" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G69">
-        <f>D9</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>94.9</v>
       </c>
       <c r="H69" t="str">
-        <f>E9</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J69">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K69" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G70">
-        <f>D10</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="H70" t="str">
-        <f>E10</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J70">
-        <v>100</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="K70" t="s">
         <v>6</v>
@@ -2535,15 +2636,15 @@
     </row>
     <row r="71" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G71">
-        <f>D11</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>93.5</v>
       </c>
       <c r="H71" t="str">
-        <f>E11</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J71">
-        <v>100</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="K71" t="s">
         <v>6</v>
@@ -2551,31 +2652,31 @@
     </row>
     <row r="72" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G72">
-        <f>D12</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>93.3</v>
       </c>
       <c r="H72" t="str">
-        <f>E12</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J72">
-        <v>100</v>
+        <v>74.3</v>
       </c>
       <c r="K72" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G73">
-        <f>D13</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>95.9</v>
       </c>
       <c r="H73" t="str">
-        <f>E13</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J73">
-        <v>100</v>
+        <v>74.5</v>
       </c>
       <c r="K73" t="s">
         <v>6</v>
@@ -2583,15 +2684,15 @@
     </row>
     <row r="74" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G74">
-        <f>D14</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="H74" t="str">
-        <f>E14</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J74">
-        <v>100</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="K74" t="s">
         <v>6</v>
@@ -2599,15 +2700,15 @@
     </row>
     <row r="75" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G75">
-        <f>D15</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>99.8</v>
       </c>
       <c r="H75" t="str">
-        <f>E15</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J75">
-        <v>100</v>
+        <v>75.5</v>
       </c>
       <c r="K75" t="s">
         <v>6</v>
@@ -2615,15 +2716,15 @@
     </row>
     <row r="76" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G76">
-        <f>D16</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="H76" t="str">
-        <f>E16</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J76">
-        <v>100</v>
+        <v>78.2</v>
       </c>
       <c r="K76" t="s">
         <v>6</v>
@@ -2631,31 +2732,31 @@
     </row>
     <row r="77" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G77">
-        <f>D17</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="H77" t="str">
-        <f>E17</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J77">
-        <v>100</v>
+        <v>78.2</v>
       </c>
       <c r="K77" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G78">
-        <f>D18</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>31.3</v>
       </c>
       <c r="H78" t="str">
-        <f>E18</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J78">
-        <v>100</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="K78" t="s">
         <v>6</v>
@@ -2663,15 +2764,15 @@
     </row>
     <row r="79" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G79">
-        <f>D19</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="H79" t="str">
-        <f>E19</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J79">
-        <v>100</v>
+        <v>82.4</v>
       </c>
       <c r="K79" t="s">
         <v>6</v>
@@ -2679,31 +2780,31 @@
     </row>
     <row r="80" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G80">
-        <f>D20</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>99</v>
       </c>
       <c r="H80" t="str">
-        <f>E20</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J80">
-        <v>100</v>
+        <v>84.5</v>
       </c>
       <c r="K80" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G81">
-        <f>D21</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>86</v>
       </c>
       <c r="H81" t="str">
-        <f>E21</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J81">
-        <v>100</v>
+        <v>84.6</v>
       </c>
       <c r="K81" t="s">
         <v>6</v>
@@ -2711,47 +2812,47 @@
     </row>
     <row r="82" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G82">
-        <f>D22</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>86.4</v>
       </c>
       <c r="H82" t="str">
-        <f>E22</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J82">
-        <v>100</v>
+        <v>84.7</v>
       </c>
       <c r="K82" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G83">
-        <f>D23</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>34.799999999999997</v>
       </c>
       <c r="H83" t="str">
-        <f>E23</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J83">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="K83" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G84">
-        <f>D24</f>
-        <v>90.6</v>
+        <f t="shared" si="6"/>
+        <v>62.4</v>
       </c>
       <c r="H84" t="str">
-        <f>E24</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J84">
-        <v>100</v>
+        <v>86.1</v>
       </c>
       <c r="K84" t="s">
         <v>6</v>
@@ -2759,642 +2860,642 @@
     </row>
     <row r="85" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G85">
-        <f>D25</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>45.7</v>
       </c>
       <c r="H85" t="str">
-        <f>E25</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J85">
-        <v>100</v>
+        <v>86.4</v>
       </c>
       <c r="K85" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G86">
-        <f>D26</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="H86" t="str">
-        <f>E26</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J86">
-        <v>100</v>
+        <v>90.9</v>
       </c>
       <c r="K86" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G87">
-        <f>D27</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="H87" t="str">
-        <f>E27</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J87">
-        <v>100</v>
+        <v>91.7</v>
       </c>
       <c r="K87" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G88">
-        <f>D28</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>44.1</v>
       </c>
       <c r="H88" t="str">
-        <f>E28</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J88">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G89">
-        <f>D29</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>99.8</v>
       </c>
       <c r="H89" t="str">
-        <f>E29</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J89">
-        <v>100</v>
+        <v>92.1</v>
       </c>
       <c r="K89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G90">
-        <f>D30</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="H90" t="str">
-        <f>E30</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J90">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="K90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G91">
-        <f>D31</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="H91" t="str">
-        <f>E31</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J91">
-        <v>100</v>
+        <v>93.5</v>
       </c>
       <c r="K91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G92">
-        <f>D32</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>74.3</v>
       </c>
       <c r="H92" t="str">
-        <f>E32</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J92">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G93">
-        <f>D33</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="H93" t="str">
-        <f>E33</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J93">
-        <v>100</v>
+        <v>94.9</v>
       </c>
       <c r="K93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G94">
-        <f>D34</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>65.2</v>
       </c>
       <c r="H94" t="str">
-        <f>E34</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J94">
-        <v>100</v>
+        <v>95.6</v>
       </c>
       <c r="K94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G95">
-        <f>D35</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="H95" t="str">
-        <f>E35</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J95">
-        <v>100</v>
+        <v>95.9</v>
       </c>
       <c r="K95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G96">
-        <f>D36</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>98</v>
       </c>
       <c r="H96" t="str">
-        <f>E36</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="7"/>
+        <v>Final</v>
       </c>
       <c r="J96">
-        <v>100</v>
+        <v>95.9</v>
       </c>
       <c r="K96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G97">
-        <f>D37</f>
+        <f t="shared" ref="G97:G128" si="8">D37</f>
         <v>100</v>
       </c>
       <c r="H97" t="str">
-        <f>E37</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" ref="H97:H128" si="9">E37</f>
+        <v>Final</v>
       </c>
       <c r="J97">
-        <v>100</v>
+        <v>96.4</v>
       </c>
       <c r="K97" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G98">
-        <f>D38</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>99.6</v>
       </c>
       <c r="H98" t="str">
-        <f>E38</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J98">
-        <v>100</v>
+        <v>96.4</v>
       </c>
       <c r="K98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G99">
-        <f>D39</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>78.2</v>
       </c>
       <c r="H99" t="str">
-        <f>E39</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J99">
-        <v>100</v>
+        <v>96.6</v>
       </c>
       <c r="K99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G100">
-        <f>D40</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>98.8</v>
       </c>
       <c r="H100" t="str">
-        <f>E40</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J100">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G101">
-        <f>D41</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>96.6</v>
       </c>
       <c r="H101" t="str">
-        <f>E41</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J101">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="K101" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G102">
-        <f>D42</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="H102" t="str">
-        <f>E42</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J102">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="K102" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G103">
-        <f>D43</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="H103" t="str">
-        <f>E43</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J103">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G104">
-        <f>D44</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>90.9</v>
       </c>
       <c r="H104" t="str">
-        <f>E44</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J104">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="K104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G105">
-        <f>D45</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="H105" t="str">
-        <f>E45</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J105">
-        <v>100</v>
+        <v>99.4</v>
       </c>
       <c r="K105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G106">
-        <f>D46</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>96.4</v>
       </c>
       <c r="H106" t="str">
-        <f>E46</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J106">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="K106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G107">
-        <f>D47</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>40.4</v>
       </c>
       <c r="H107" t="str">
-        <f>E47</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J107">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="K107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G108">
-        <f>D48</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>62.1</v>
       </c>
       <c r="H108" t="str">
-        <f>E48</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J108">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="K108" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G109">
-        <f>D49</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="H109" t="str">
-        <f>E49</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J109">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="K109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G110">
-        <f>D50</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>95.6</v>
       </c>
       <c r="H110" t="str">
-        <f>E50</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J110">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="K110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G111">
-        <f>D51</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>66.3</v>
       </c>
       <c r="H111" t="str">
-        <f>E51</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J111">
         <v>100</v>
       </c>
       <c r="K111" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G112">
-        <f>D52</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="H112" t="str">
-        <f>E52</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J112">
         <v>100</v>
       </c>
       <c r="K112" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G113">
-        <f>D53</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>99.8</v>
       </c>
       <c r="H113" t="str">
-        <f>E53</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J113">
         <v>100</v>
       </c>
       <c r="K113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G114">
-        <f>D54</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="H114" t="str">
-        <f>E54</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J114">
         <v>100</v>
       </c>
       <c r="K114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G115">
-        <f>D55</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>99.3</v>
       </c>
       <c r="H115" t="str">
-        <f>E55</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J115">
         <v>100</v>
       </c>
       <c r="K115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G116">
-        <f>D56</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>84.5</v>
       </c>
       <c r="H116" t="str">
-        <f>E56</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J116">
         <v>100</v>
       </c>
       <c r="K116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G117">
-        <f>D57</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>19.899999999999999</v>
       </c>
       <c r="H117" t="str">
-        <f>E57</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J117">
         <v>100</v>
       </c>
       <c r="K117" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G118">
-        <f>D58</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>95.9</v>
       </c>
       <c r="H118" t="str">
-        <f>E58</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J118">
         <v>100</v>
       </c>
       <c r="K118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G119">
-        <f>D59</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>92.1</v>
       </c>
       <c r="H119" t="str">
-        <f>E59</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J119">
         <v>100</v>
       </c>
       <c r="K119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G120">
-        <f>D60</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="H120" t="str">
-        <f>E60</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J120">
         <v>100</v>
       </c>
       <c r="K120" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G121">
-        <f>D61</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>84.7</v>
       </c>
       <c r="H121" t="str">
-        <f>E61</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J121">
         <v>100</v>
       </c>
       <c r="K121" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G122">
-        <f>D62</f>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>46.6</v>
       </c>
       <c r="H122" t="str">
-        <f>E62</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J122">
         <v>100</v>
       </c>
       <c r="K122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G123">
-        <f>D63</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>94</v>
       </c>
       <c r="H123" t="str">
-        <f>E63</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J123">
         <v>100</v>
       </c>
       <c r="K123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G124">
-        <f>D64</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="H124" t="str">
-        <f>E64</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" si="9"/>
+        <v>Final</v>
       </c>
       <c r="J124">
         <v>100</v>
       </c>
       <c r="K124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3409,7 +3510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:C123"/>
     </sheetView>
   </sheetViews>
@@ -3774,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -3794,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -3814,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -3834,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -3854,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -3874,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -3894,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -3914,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -3934,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -3954,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -3974,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -3994,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -4014,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -4034,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -4054,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -4074,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -4094,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -4114,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -4134,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -4154,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -4174,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -4191,7 +4292,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>50.8</v>
+        <v>16.2</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -4211,10 +4312,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>87.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -4231,10 +4332,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>90.6</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -4251,10 +4352,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>90.9</v>
+        <v>31.3</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -4271,54 +4372,54 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>98.1</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>99.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>100</v>
+        <v>34.9</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
@@ -4326,755 +4427,755 @@
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>100</v>
+        <v>38.4</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>100</v>
+        <v>38.9</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>100</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>47.5</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>100</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>47.5</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>100</v>
+        <v>40.4</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>100</v>
+        <v>40.6</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>100</v>
+        <v>44.1</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>100</v>
+        <v>45.7</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>100</v>
+        <v>46.6</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>100</v>
+        <v>49.3</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>100</v>
+        <v>52.3</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>100</v>
+        <v>55.8</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>100</v>
+        <v>56.6</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>100</v>
+        <v>62.1</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>100</v>
+        <v>62.4</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>100</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>100</v>
+        <v>65.2</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>100</v>
+        <v>66.3</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E67">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C68">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E68">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>100</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69">
         <f t="shared" ref="C69:C123" si="3">D69+E69</f>
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D69">
         <f t="shared" ref="D69:D123" si="4">RANK(A69,$A$4:$A$123,1)</f>
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E69">
         <f t="shared" ref="E69:E123" si="5">(COUNT($A$4:$A$123)+1-RANK(A69, $A$4:$A$123, 0)-RANK(A69, $A$4:$A$123, 1))/2</f>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>100</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D70">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E70">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>100</v>
+        <v>74.3</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C71">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D71">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E71">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>100</v>
+        <v>74.5</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D72">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E72">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>100</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D73">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>100</v>
+        <v>75.5</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D74">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E74">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>100</v>
+        <v>78.2</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>72.5</v>
       </c>
       <c r="D75">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E75">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>100</v>
+        <v>78.2</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C76">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>72.5</v>
       </c>
       <c r="D76">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E76">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>100</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D77">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E77">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>100</v>
+        <v>82.4</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D78">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E78">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>100</v>
+        <v>84.5</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D79">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E79">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>100</v>
+        <v>84.6</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D80">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E80">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>100</v>
+        <v>84.7</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C81">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D81">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="E81">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C82">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D82">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="E82">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>100</v>
+        <v>86.1</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D83">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E83">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>100</v>
+        <v>86.4</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C84">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E84">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>100</v>
+        <v>90.9</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C85">
         <f t="shared" si="3"/>
@@ -5082,491 +5183,491 @@
       </c>
       <c r="D85">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="E85">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>100</v>
+        <v>91.7</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D86">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E86">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C87">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D87">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="E87">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>100</v>
+        <v>92.1</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C88">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D88">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E88">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C89">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D89">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E89">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>100</v>
+        <v>93.5</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C90">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D90">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="E90">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D91">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="E91">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>100</v>
+        <v>94.9</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D92">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E92">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>100</v>
+        <v>95.6</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D93">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="E93">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>100</v>
+        <v>95.9</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>91.5</v>
       </c>
       <c r="D94">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E94">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>100</v>
+        <v>95.9</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>91.5</v>
       </c>
       <c r="D95">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="E95">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>100</v>
+        <v>96.4</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>93.5</v>
       </c>
       <c r="D96">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E96">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>100</v>
+        <v>96.4</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C97">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>93.5</v>
       </c>
       <c r="D97">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E97">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>100</v>
+        <v>96.6</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C98">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D98">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E98">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C99">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D99">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="E99">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C100">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D100">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="E100">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C101">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D101">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E101">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C102">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D102">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E102">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
+        <v>99.3</v>
+      </c>
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="B103" t="s">
-        <v>32</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="3"/>
-        <v>82</v>
-      </c>
       <c r="D103">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E103">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>100</v>
+        <v>99.4</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C104">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D104">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E104">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C105">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>102.5</v>
       </c>
       <c r="D105">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="E105">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C106">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>102.5</v>
       </c>
       <c r="D106">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="E106">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="B107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C107">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D107">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E107">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C108">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D108">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E108">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C109">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D109">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E109">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5574,19 +5675,19 @@
         <v>100</v>
       </c>
       <c r="B110" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C110">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D110">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E110">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5594,19 +5695,19 @@
         <v>100</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C111">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D111">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E111">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5614,19 +5715,19 @@
         <v>100</v>
       </c>
       <c r="B112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C112">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D112">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E112">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5634,19 +5735,19 @@
         <v>100</v>
       </c>
       <c r="B113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C113">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D113">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E113">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5654,19 +5755,19 @@
         <v>100</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C114">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D114">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E114">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5674,19 +5775,19 @@
         <v>100</v>
       </c>
       <c r="B115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C115">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D115">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E115">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5694,19 +5795,19 @@
         <v>100</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C116">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D116">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E116">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5714,19 +5815,19 @@
         <v>100</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C117">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D117">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E117">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5734,19 +5835,19 @@
         <v>100</v>
       </c>
       <c r="B118" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C118">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D118">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E118">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5754,19 +5855,19 @@
         <v>100</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C119">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D119">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E119">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5774,19 +5875,19 @@
         <v>100</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C120">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D120">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E120">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5794,19 +5895,19 @@
         <v>100</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C121">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D121">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E121">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5814,19 +5915,19 @@
         <v>100</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C122">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D122">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E122">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5834,19 +5935,19 @@
         <v>100</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C123">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="D123">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E123">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -5858,8 +5959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5915,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>19</v>
@@ -5926,7 +6027,7 @@
       </c>
       <c r="F3" t="str">
         <f>$B3</f>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G3">
         <f>$C3</f>
@@ -5950,33 +6051,33 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>19</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E63" si="0">$A4</f>
+        <f t="shared" ref="E4:E62" si="0">$A4</f>
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F63" si="1">$B4</f>
-        <v>TurnsAboveOne</v>
+        <f t="shared" ref="F4:F62" si="1">$B4</f>
+        <v>Final</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G63" si="2">$C4</f>
+        <f t="shared" ref="G4:G62" si="2">$C4</f>
         <v>19</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I63" si="3">$A64</f>
+        <f t="shared" ref="I4:I62" si="3">$A64</f>
         <v>0</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J63" si="4">$B64</f>
+        <f t="shared" ref="J4:J62" si="4">$B64</f>
         <v>Wei</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K63" si="5">$C64</f>
+        <f t="shared" ref="K4:K62" si="5">$C64</f>
         <v>19</v>
       </c>
     </row>
@@ -5985,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -5996,7 +6097,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
@@ -6020,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -6031,7 +6132,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
@@ -6055,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -6066,7 +6167,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
@@ -6090,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>19</v>
@@ -6101,7 +6202,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -6125,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>19</v>
@@ -6136,7 +6237,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -6160,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -6171,7 +6272,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -6192,25 +6293,25 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
@@ -6227,25 +6328,25 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
@@ -6262,25 +6363,25 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>42.5</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>42.5</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
@@ -6297,25 +6398,25 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
@@ -6332,25 +6433,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
@@ -6367,25 +6468,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0</v>
+        <v>45.7</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45.7</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
@@ -6402,25 +6503,25 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0</v>
+        <v>46.6</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46.6</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
@@ -6437,25 +6538,25 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>62.1</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62.1</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
@@ -6472,29 +6573,29 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>50.8</v>
+        <v>0</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="4"/>
@@ -6502,34 +6603,34 @@
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0</v>
+        <v>65.2</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65.2</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>87.9</v>
+        <v>0</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="4"/>
@@ -6537,34 +6638,34 @@
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0</v>
+        <v>66.3</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66.3</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>90.9</v>
+        <v>0</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="4"/>
@@ -6572,34 +6673,34 @@
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>98.1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="4"/>
@@ -6607,34 +6708,34 @@
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0</v>
+        <v>74.3</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74.3</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>99.8</v>
+        <v>0</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="4"/>
@@ -6642,34 +6743,34 @@
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>90.6</v>
+        <v>78.2</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>72.5</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>90.6</v>
+        <v>78.2</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>72.5</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="4"/>
@@ -6677,34 +6778,34 @@
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>100</v>
+        <v>84.5</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>84.5</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="4"/>
@@ -6712,34 +6813,34 @@
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>100</v>
+        <v>84.7</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>84.7</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="4"/>
@@ -6747,34 +6848,34 @@
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C27">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="4"/>
@@ -6782,34 +6883,34 @@
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>100</v>
+        <v>86.4</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>86.4</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="4"/>
@@ -6817,26 +6918,26 @@
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>100</v>
+        <v>90.9</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>82</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>90.9</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
@@ -6844,7 +6945,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="4"/>
@@ -6852,34 +6953,34 @@
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="4"/>
@@ -6887,34 +6988,34 @@
       </c>
       <c r="K30">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>100</v>
+        <v>92.1</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>92.1</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="4"/>
@@ -6922,34 +7023,34 @@
       </c>
       <c r="K31">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>16.2</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="4"/>
@@ -6957,34 +7058,34 @@
       </c>
       <c r="K32">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>100</v>
+        <v>93.5</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>93.5</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="4"/>
@@ -6992,34 +7093,34 @@
       </c>
       <c r="K33">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="4"/>
@@ -7027,34 +7128,34 @@
       </c>
       <c r="K34">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>100</v>
+        <v>94.9</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>94.9</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>34.9</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="4"/>
@@ -7062,34 +7163,34 @@
       </c>
       <c r="K35">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>100</v>
+        <v>95.6</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95.6</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>38.4</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="4"/>
@@ -7097,34 +7198,34 @@
       </c>
       <c r="K36">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>100</v>
+        <v>95.9</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>82</v>
+        <v>91.5</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95.9</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>91.5</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>38.9</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="4"/>
@@ -7132,34 +7233,34 @@
       </c>
       <c r="K37">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>100</v>
+        <v>95.9</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>82</v>
+        <v>91.5</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95.9</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>91.5</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="4"/>
@@ -7167,34 +7268,34 @@
       </c>
       <c r="K38">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>100</v>
+        <v>96.4</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C39">
-        <v>82</v>
+        <v>93.5</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96.4</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>93.5</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="4"/>
@@ -7202,34 +7303,34 @@
       </c>
       <c r="K39">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>100</v>
+        <v>96.6</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C40">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>96.6</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>40.6</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="4"/>
@@ -7237,34 +7338,34 @@
       </c>
       <c r="K40">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C41">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>49.3</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="4"/>
@@ -7272,34 +7373,34 @@
       </c>
       <c r="K41">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="4"/>
@@ -7307,34 +7408,34 @@
       </c>
       <c r="K42">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C43">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>52.3</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="4"/>
@@ -7342,34 +7443,34 @@
       </c>
       <c r="K43">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>99.3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44">
         <v>100</v>
       </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44">
-        <v>82</v>
-      </c>
       <c r="E44">
         <f t="shared" si="0"/>
+        <v>99.3</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>Final</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="F44" t="str">
-        <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>55.8</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="4"/>
@@ -7377,34 +7478,34 @@
       </c>
       <c r="K44">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>100</v>
+        <v>99.4</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>99.4</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="I45">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>56.6</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="4"/>
@@ -7412,34 +7513,34 @@
       </c>
       <c r="K45">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C46">
-        <v>82</v>
+        <v>102.5</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>102.5</v>
       </c>
       <c r="I46">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="4"/>
@@ -7447,34 +7548,34 @@
       </c>
       <c r="K46">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>82</v>
+        <v>102.5</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>99.6</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>102.5</v>
       </c>
       <c r="I47">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="4"/>
@@ -7482,34 +7583,34 @@
       </c>
       <c r="K47">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C48">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="I48">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="4"/>
@@ -7517,34 +7618,34 @@
       </c>
       <c r="K48">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="I49">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="4"/>
@@ -7552,34 +7653,34 @@
       </c>
       <c r="K49">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>74.5</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="4"/>
@@ -7587,7 +7688,7 @@
       </c>
       <c r="K50">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -7595,10 +7696,10 @@
         <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C51">
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
@@ -7606,15 +7707,15 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="I51">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="4"/>
@@ -7622,7 +7723,7 @@
       </c>
       <c r="K51">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -7630,10 +7731,10 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C52">
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
@@ -7641,15 +7742,15 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="I52">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>75.5</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="4"/>
@@ -7657,7 +7758,7 @@
       </c>
       <c r="K52">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -7665,10 +7766,10 @@
         <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C53">
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
@@ -7676,15 +7777,15 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="I53">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>78.2</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="4"/>
@@ -7692,7 +7793,7 @@
       </c>
       <c r="K53">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -7700,10 +7801,10 @@
         <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C54">
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
@@ -7711,15 +7812,15 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="I54">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="4"/>
@@ -7727,7 +7828,7 @@
       </c>
       <c r="K54">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -7735,10 +7836,10 @@
         <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C55">
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
@@ -7746,15 +7847,15 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="I55">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>82.4</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="4"/>
@@ -7762,7 +7863,7 @@
       </c>
       <c r="K55">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -7770,10 +7871,10 @@
         <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C56">
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
@@ -7781,15 +7882,15 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="I56">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>84.6</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="4"/>
@@ -7797,7 +7898,7 @@
       </c>
       <c r="K56">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -7805,10 +7906,10 @@
         <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C57">
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
@@ -7816,15 +7917,15 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="I57">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>86.1</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="4"/>
@@ -7832,7 +7933,7 @@
       </c>
       <c r="K57">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -7840,10 +7941,10 @@
         <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C58">
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
@@ -7851,15 +7952,15 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="I58">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>91.7</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="4"/>
@@ -7867,7 +7968,7 @@
       </c>
       <c r="K58">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -7875,10 +7976,10 @@
         <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C59">
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
@@ -7886,15 +7987,15 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="I59">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>96.4</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="4"/>
@@ -7902,7 +8003,7 @@
       </c>
       <c r="K59">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -7910,10 +8011,10 @@
         <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C60">
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
@@ -7921,15 +8022,15 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="I60">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="4"/>
@@ -7937,7 +8038,7 @@
       </c>
       <c r="K60">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -7945,10 +8046,10 @@
         <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C61">
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
@@ -7956,11 +8057,11 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="I61">
         <f t="shared" si="3"/>
@@ -7972,7 +8073,7 @@
       </c>
       <c r="K61">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -7980,10 +8081,10 @@
         <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C62">
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
@@ -7991,11 +8092,11 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="1"/>
-        <v>TurnsAboveOne</v>
+        <v>Final</v>
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
       <c r="I62">
         <f t="shared" si="3"/>
@@ -8007,7 +8108,7 @@
       </c>
       <c r="K62">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -8061,14 +8162,14 @@
       </c>
       <c r="F65">
         <f>SUM(G3:G62)</f>
-        <v>3555</v>
+        <v>4681.5</v>
       </c>
       <c r="I65" t="s">
         <v>24</v>
       </c>
       <c r="J65">
         <f>SUM(K3:K62)</f>
-        <v>3705</v>
+        <v>2578.5</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -8097,7 +8198,7 @@
       </c>
       <c r="H67">
         <f>MIN(F65,J65)</f>
-        <v>3555</v>
+        <v>2578.5</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -8157,14 +8258,14 @@
       </c>
       <c r="H70">
         <f>(H67-H68)/H69</f>
-        <v>-0.3936479108111085</v>
+        <v>-5.5189437095717411</v>
       </c>
       <c r="I70">
-        <v>0.3483</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <f>2*I70</f>
-        <v>0.6966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -8257,464 +8358,464 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>50.8</v>
+        <v>0</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>87.9</v>
+        <v>0</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>90.9</v>
+        <v>0</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>98.1</v>
+        <v>0</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>99.8</v>
+        <v>0</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>100</v>
+        <v>16.2</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>100</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94">
-        <v>82</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>100</v>
+        <v>34.9</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95">
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>100</v>
+        <v>38.4</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>100</v>
+        <v>38.9</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>100</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98">
-        <v>82</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>100</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99">
-        <v>82</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>100</v>
+        <v>40.6</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>49.3</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>100</v>
+        <v>52.3</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>100</v>
+        <v>55.8</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>100</v>
+        <v>56.6</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>100</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>100</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
       </c>
       <c r="C108">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>100</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
       <c r="C109">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>100</v>
+        <v>74.5</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
       </c>
       <c r="C110">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>100</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>100</v>
+        <v>75.5</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>100</v>
+        <v>78.2</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113">
-        <v>82</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>100</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>100</v>
+        <v>82.4</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>100</v>
+        <v>84.6</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>100</v>
+        <v>86.1</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
       <c r="C117">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>100</v>
+        <v>91.7</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
       </c>
       <c r="C118">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>100</v>
+        <v>96.4</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
       </c>
       <c r="C119">
-        <v>82</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
       </c>
       <c r="C120">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -8725,7 +8826,7 @@
         <v>6</v>
       </c>
       <c r="C121">
-        <v>82</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -8736,7 +8837,7 @@
         <v>6</v>
       </c>
       <c r="C122">
-        <v>82</v>
+        <v>113.5</v>
       </c>
     </row>
   </sheetData>
@@ -8744,6 +8845,249 @@
     <sortCondition ref="B3:B122"/>
   </sortState>
   <conditionalFormatting sqref="J70">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0.85719999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0.28920000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>0.6966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <f>0.4238</f>
+        <v>0.42380000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>6.4399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>0.13880000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0.1212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D5 D7:D17 E12">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>0.05</formula>
     </cfRule>
@@ -8756,151 +9100,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0.85719999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>0.28920000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4">
-        <v>0.6966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="D2:D17">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>